--- a/Users/pbrown/_sandbox/Avionics Budget.xlsx
+++ b/Users/pbrown/_sandbox/Avionics Budget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>Line Item</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Vendor PN</t>
-  </si>
-  <si>
     <t>Mnf PN</t>
   </si>
   <si>
@@ -43,18 +40,9 @@
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>Beagle Bone</t>
-  </si>
-  <si>
-    <t>Big Red Bee</t>
-  </si>
-  <si>
     <t>Xbee Pro SX</t>
   </si>
   <si>
-    <t>GoPro or equivalent</t>
-  </si>
-  <si>
     <t>XBP09-DPSIT-156</t>
   </si>
   <si>
@@ -70,9 +58,6 @@
     <t>Swfit Antenna</t>
   </si>
   <si>
-    <t>RPi for Camera?</t>
-  </si>
-  <si>
     <t>Swift GPS</t>
   </si>
   <si>
@@ -94,18 +79,6 @@
     <t>Flight Computer, Sensors</t>
   </si>
   <si>
-    <t>Data Transimission, Ground Segment and Ignition</t>
-  </si>
-  <si>
-    <t>Data Transimssion, Transceiver on rocket and ground station</t>
-  </si>
-  <si>
-    <t>FPV, camera</t>
-  </si>
-  <si>
-    <t>FPV, Computer</t>
-  </si>
-  <si>
     <t>Recovery, Altimeter</t>
   </si>
   <si>
@@ -169,18 +142,106 @@
     <t>CO2 Charge Recovery</t>
   </si>
   <si>
-    <t>Data Transmission, Ground Segment</t>
-  </si>
-  <si>
     <t>Xbee Pro 900 Antennas</t>
+  </si>
+  <si>
+    <t>Big Red Bee (with package deal and battery)</t>
+  </si>
+  <si>
+    <t>Data Transimssion, Transceiver, Rocket and Mission Ops</t>
+  </si>
+  <si>
+    <t>XBP9X-DMUS-001</t>
+  </si>
+  <si>
+    <t>XBIB-U-SS</t>
+  </si>
+  <si>
+    <t>BRBGPS70MP</t>
+  </si>
+  <si>
+    <t>BBONE-BLACK-4G</t>
+  </si>
+  <si>
+    <t>ELEMENT14</t>
+  </si>
+  <si>
+    <t>http://www.mcmelectronics.com/product/83-16241?utm_campaign=e14&amp;utm_source=e14community&amp;utm_medium=forum&amp;utm_term=83-16241&amp;COM=dtss-search_element14+CMPNULL</t>
+  </si>
+  <si>
+    <t>FPV, Camera</t>
+  </si>
+  <si>
+    <t>http://www.mcmelectronics.com/product/83-17300?utm_campaign=e14&amp;utm_source=e14community&amp;utm_medium=forum&amp;utm_term=83-17300&amp;COM=superwidget-link_RaspberryPi+CMPNULL</t>
+  </si>
+  <si>
+    <t>Cheap GoPro equivalent</t>
+  </si>
+  <si>
+    <t>https://www.raspberrypi.org/documentation/hardware/raspberrypi/README.md</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Digi-International/XBIB-U-SS/?qs=%2fha2pyFadujJubzYZSlvjJxa8zU%252bpjcAEMdFPS3RQBYPyApdtiMgG6kjs95qtscd76pcFJ%2fJeswib4LpWApmTsumziT3mEmv</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/111/digi_04052016_xbee%20SX-910435.pdf</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/111/xbibuss_referenceguide-794425.pdf</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Digi-International/XBIB-U-SS/?qs=%2fha2pyFaduh7t2cWuEjIgPxN2B7gCVccuha1LAGw5dQ%3d</t>
+  </si>
+  <si>
+    <t>A09-HBSM-P5I</t>
+  </si>
+  <si>
+    <t>http://store.swiftnav.com/s.nl/it.A/id.6260/.f</t>
+  </si>
+  <si>
+    <t>GNSS Antenna Pack</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>Arduino Uno</t>
+  </si>
+  <si>
+    <t>Relay Board</t>
+  </si>
+  <si>
+    <t>Beaglebone Black rev C</t>
+  </si>
+  <si>
+    <t>Ground Segment, Data Transmission</t>
+  </si>
+  <si>
+    <t>Ground Segment, Ignition</t>
+  </si>
+  <si>
+    <t>Ground Segment, Controller</t>
+  </si>
+  <si>
+    <t>FPV, Controller</t>
+  </si>
+  <si>
+    <t>Rasberry Pi 3</t>
+  </si>
+  <si>
+    <t>Piksi GNSS Module</t>
+  </si>
+  <si>
+    <t>Cumulative Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -243,12 +304,28 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -555,422 +632,574 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" customWidth="1"/>
-    <col min="8" max="8" width="55.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="68.5703125" customWidth="1"/>
-    <col min="12" max="12" width="84.5703125" customWidth="1"/>
-    <col min="13" max="13" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="75.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="115.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="182.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>55</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>299</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>99</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>70</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>21</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>30</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>40</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>21</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>50</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5">
+        <v>25</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>35</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>500</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>155</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>55</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>200</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="L16" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D17" s="5">
+        <v>140</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>30</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>259</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>99</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>70</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>350</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>500</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>155</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>200</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>140</v>
-      </c>
-      <c r="G14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>30</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19">
-        <f>SUMPRODUCT(C2:C16,D2:D16)</f>
-        <v>1109</v>
-      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5">
+        <f>SUMPRODUCT(C2:C18,D2:D18)</f>
+        <v>924</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A19:C19"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K11" r:id="rId1"/>
-    <hyperlink ref="K10" r:id="rId2"/>
-    <hyperlink ref="L10" r:id="rId3"/>
-    <hyperlink ref="L11" r:id="rId4"/>
-    <hyperlink ref="M11" r:id="rId5"/>
+    <hyperlink ref="J15" r:id="rId1"/>
+    <hyperlink ref="J14" r:id="rId2"/>
+    <hyperlink ref="K14" r:id="rId3"/>
+    <hyperlink ref="K15" r:id="rId4"/>
+    <hyperlink ref="L15" r:id="rId5"/>
+    <hyperlink ref="J4" r:id="rId6"/>
+    <hyperlink ref="L2" r:id="rId7"/>
+    <hyperlink ref="L13" r:id="rId8"/>
+    <hyperlink ref="J13" r:id="rId9"/>
+    <hyperlink ref="J9" r:id="rId10"/>
+    <hyperlink ref="J3" r:id="rId11" location="!board-features"/>
+    <hyperlink ref="J2" r:id="rId12"/>
+    <hyperlink ref="L5" r:id="rId13"/>
+    <hyperlink ref="J5" r:id="rId14"/>
+    <hyperlink ref="J6" r:id="rId15"/>
+    <hyperlink ref="L6" r:id="rId16"/>
+    <hyperlink ref="L16" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>